--- a/对照表.xlsx
+++ b/对照表.xlsx
@@ -48,27 +48,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>合作伙伴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cooperation.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合作伙伴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系我们</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,12 +421,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -473,26 +473,26 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/对照表.xlsx
+++ b/对照表.xlsx
@@ -60,15 +60,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>联系我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperation.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>contact.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系我们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooperation.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +421,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -470,13 +470,19 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -489,10 +495,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="C7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
